--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD49C239-D28F-4545-AB59-72B70D77F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCADAF53-CBEA-144D-ABDA-963B47E031AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Awesome lists about all kinds of interesting topics</t>
   </si>
   <si>
-    <t>a curated list of awesome tools to assist 📦 development in R programming language</t>
-  </si>
-  <si>
     <t>все, везде и сразу</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>https://ercbk.github.io/Data-Science-Notebook/</t>
+  </si>
+  <si>
+    <t>подробный список лучших инструментов для помощи в разработке 📦 на языке программирования R</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,13 +634,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -654,12 +654,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -670,197 +670,197 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCADAF53-CBEA-144D-ABDA-963B47E031AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF512BA-63E1-ED4E-AEE4-FF7C50C29988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>title</t>
   </si>
@@ -52,9 +52,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>большая коллекция книг и ресурсов по R</t>
-  </si>
-  <si>
     <t>Data Science Resources</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>https://psyteachr.github.io/</t>
   </si>
   <si>
-    <t>ресурсы ссобщества University of Glasgow</t>
-  </si>
-  <si>
     <t>https://www.resourcesdatabase.com/</t>
   </si>
   <si>
@@ -242,6 +236,21 @@
   </si>
   <si>
     <t>подробный список лучших инструментов для помощи в разработке 📦 на языке программирования R</t>
+  </si>
+  <si>
+    <t>ресурсы сообщества University of Glasgow</t>
+  </si>
+  <si>
+    <t>Causal Inference Econometrics Reading List and R Tutorials</t>
+  </si>
+  <si>
+    <t>https://github.com/annastavniychuk/econometrics_library</t>
+  </si>
+  <si>
+    <t>большая коллекция книг и ресурсов по R, автор Oscar Baruffa</t>
+  </si>
+  <si>
+    <t>оценка причинно-следственных связей, автор Anna Stavniychuk</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -634,233 +643,244 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
+    </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF512BA-63E1-ED4E-AEE4-FF7C50C29988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30FCECB-6856-5F4B-98E6-EAC3F0AE86DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>title</t>
   </si>
@@ -241,16 +241,7 @@
     <t>ресурсы сообщества University of Glasgow</t>
   </si>
   <si>
-    <t>Causal Inference Econometrics Reading List and R Tutorials</t>
-  </si>
-  <si>
-    <t>https://github.com/annastavniychuk/econometrics_library</t>
-  </si>
-  <si>
     <t>большая коллекция книг и ресурсов по R, автор Oscar Baruffa</t>
-  </si>
-  <si>
-    <t>оценка причинно-следственных связей, автор Anna Stavniychuk</t>
   </si>
 </sst>
 </file>
@@ -606,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -870,17 +861,6 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30FCECB-6856-5F4B-98E6-EAC3F0AE86DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B064E-7F10-0C44-A304-9CEFD3AE6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>title</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>большая коллекция книг и ресурсов по R, автор Oscar Baruffa</t>
+  </si>
+  <si>
+    <t>Posit Conference 2024 Mastodon ‘Toots’</t>
+  </si>
+  <si>
+    <t>Поиск в постах Mastodon с хэштегом #PositConf2024, автор Sharon Machlis</t>
+  </si>
+  <si>
+    <t>https://apps.machlis.com/shiny/positconf/</t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,6 +872,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B064E-7F10-0C44-A304-9CEFD3AE6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC877C51-B074-444B-BBEA-FD3B2BA04E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -247,10 +247,10 @@
     <t>Posit Conference 2024 Mastodon ‘Toots’</t>
   </si>
   <si>
-    <t>Поиск в постах Mastodon с хэштегом #PositConf2024, автор Sharon Machlis</t>
-  </si>
-  <si>
     <t>https://apps.machlis.com/shiny/positconf/</t>
+  </si>
+  <si>
+    <t>поиск в постах Mastodon с хэштегом #PositConf2024, автор Sharon Machlis</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,10 +877,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC877C51-B074-444B-BBEA-FD3B2BA04E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670E37EF-56E6-B646-89CC-D008403F1165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>title</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>поиск в постах Mastodon с хэштегом #PositConf2024, автор Sharon Machlis</t>
+  </si>
+  <si>
+    <t>Awesome Data Science Settings</t>
+  </si>
+  <si>
+    <t>руководство по настройке основных инструментов обработки данных, автор Rami Krispin</t>
+  </si>
+  <si>
+    <t>https://github.com/RamiKrispin/awesome-ds-setting</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,6 +892,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/links.xlsx
+++ b/tables/links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670E37EF-56E6-B646-89CC-D008403F1165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F982D7-13DF-704F-A3AF-F97C01911A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24540" windowHeight="13680" xr2:uid="{6C34D432-40FE-6241-9589-700BD09EDF68}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>title</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>https://github.com/RamiKrispin/awesome-ds-setting</t>
+  </si>
+  <si>
+    <t>Examples of statistical methodology</t>
+  </si>
+  <si>
+    <t>https://psiaims.github.io/CAMIS/</t>
+  </si>
+  <si>
+    <t>Примеры статистических методов</t>
   </si>
 </sst>
 </file>
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE45A-359E-7549-9A43-F22DC8FBE490}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,6 +912,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
